--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -16,64 +16,10 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>testeraj:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-类名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>testeraj:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-方法名</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>模块名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>功能</t>
   </si>
   <si>
     <t>子功能</t>
@@ -104,6 +50,24 @@
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>http://192.168.1.127/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'4297f44b13955235245b2497399d7a93'}</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>http://192.168.1.128/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123456'}</t>
+  </si>
+  <si>
+    <t>账号不存在，或密码输入有误</t>
   </si>
 </sst>
 </file>
@@ -113,10 +77,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +116,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,9 +137,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +177,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,77 +243,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -306,25 +259,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +349,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,139 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +469,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -534,6 +511,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -557,8 +545,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,41 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,149 +573,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,7 +725,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,7 +1061,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1108,40 +1070,40 @@
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="79.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="79.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
     <col min="8" max="8" width="27.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1151,10 +1113,34 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" ht="33" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1165,6 +1151,5 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>功能</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>操作成功</t>
-  </si>
-  <si>
-    <t>http://192.168.1.128/system/login</t>
   </si>
   <si>
     <t>{'userName':'admin', 'password':'123456'}</t>
@@ -75,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,13 +98,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,6 +105,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -138,15 +150,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,61 +194,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +465,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,8 +498,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,44 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,19 +582,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,112 +603,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -734,7 +731,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1058,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1113,7 +1110,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1134,13 +1131,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -37,7 +37,7 @@
     <t>请求头</t>
   </si>
   <si>
-    <t>预期结果</t>
+    <t>预期结果-response</t>
   </si>
   <si>
     <t>预期结果-sql</t>
@@ -74,8 +74,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -98,37 +98,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,95 +218,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,55 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,109 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,50 +465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,11 +500,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +551,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,16 +582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,115 +600,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -98,25 +98,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +202,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,103 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -256,37 +256,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,145 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,17 +468,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,15 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -518,6 +500,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,17 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -98,14 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +120,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,7 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,15 +149,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,36 +160,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,24 +179,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +217,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -256,19 +256,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,19 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,139 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,21 +475,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -513,26 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,6 +509,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +536,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -119,15 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +145,29 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,14 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -204,30 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,181 +256,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +489,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -522,36 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -570,145 +570,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -98,6 +98,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,14 +119,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -141,13 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -156,8 +217,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,76 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -256,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,50 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,145 +570,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -98,12 +98,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -111,6 +163,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,8 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +204,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,86 +235,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,12 +256,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -274,7 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,24 +358,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,13 +370,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,109 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +465,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,23 +542,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="57">
   <si>
     <t>功能</t>
   </si>
@@ -25,6 +25,9 @@
     <t>子功能</t>
   </si>
   <si>
+    <t>用例描述</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -43,10 +46,10 @@
     <t>预期结果-sql</t>
   </si>
   <si>
-    <t>TestBase</t>
-  </si>
-  <si>
-    <t>test_login</t>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>前置条件</t>
   </si>
   <si>
     <t>post</t>
@@ -61,10 +64,130 @@
     <t>操作成功</t>
   </si>
   <si>
+    <t>错误的密码</t>
+  </si>
+  <si>
     <t>{'userName':'admin', 'password':'123456'}</t>
   </si>
   <si>
+    <t>{"token": "6706951859870892032"}</t>
+  </si>
+  <si>
     <t>账号不存在，或密码输入有误</t>
+  </si>
+  <si>
+    <t>http://192.168.1.128/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123457'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.129/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123458'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.130/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123459'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.131/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123460'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.132/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123461'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.133/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123462'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.134/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123463'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.135/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123464'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.136/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123465'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.137/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123466'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.138/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123467'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.139/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123468'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.140/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123469'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.141/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123470'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.142/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123471'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.143/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123472'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.144/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123473'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.145/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123474'}</t>
+  </si>
+  <si>
+    <t>http://192.168.1.146/system/login</t>
+  </si>
+  <si>
+    <t>{'userName':'admin', 'password':'123475'}</t>
   </si>
 </sst>
 </file>
@@ -98,6 +221,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,7 +235,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,45 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +326,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -179,63 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,192 +379,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -466,16 +589,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +630,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,39 +698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,143 +718,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,8 +870,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,28 +1198,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="79.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="79.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,56 +1239,563 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="33" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="32" customHeight="1" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="32" customHeight="1" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D22 D23:D1048576">
       <formula1>"post,get"</formula1>
     </dataValidation>
   </dataValidations>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>功能</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>{'userName':'admin', 'password':'123456'}</t>
+  </si>
+  <si>
+    <t>{"token": "6706898747730690048"}</t>
   </si>
   <si>
     <t>账号不存在，或密码输入有误</t>
@@ -116,12 +119,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,9 +179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,23 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,45 +257,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,37 +277,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,115 +439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +486,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,11 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,39 +557,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,29 +1168,34 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="4">
         <v>200</v>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>功能</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>{'userName':'admin', 'password':'123456'}</t>
-  </si>
-  <si>
-    <t>{"token": "6706898747730690048"}</t>
   </si>
   <si>
     <t>账号不存在，或密码输入有误</t>
@@ -93,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -119,6 +116,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -126,7 +137,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,7 +182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,38 +197,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,42 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,12 +274,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,163 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,8 +486,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,36 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -574,15 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,149 +588,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1076,10 +1076,10 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1168,35 +1168,31 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="49.5" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="4">
         <v>200</v>
       </c>

--- a/casedata.xlsx
+++ b/casedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>功能</t>
   </si>
@@ -46,6 +46,9 @@
     <t>预期结果-sql</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>账号不存在，或密码输入有误</t>
+  </si>
+  <si>
+    <t>Query</t>
   </si>
   <si>
     <t>查询</t>
@@ -90,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -116,6 +122,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,14 +151,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,77 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +280,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,175 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,80 +485,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +512,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1082,10 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1130,23 +1136,23 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:8">
@@ -1154,43 +1160,43 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="4">
